--- a/data_files/DeMBA_landmarksValidation_Harry.xlsx
+++ b/data_files/DeMBA_landmarksValidation_Harry.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harryc\Downloads\data_for_simon\data_for_simon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harryc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83699DF0-1BE3-46CA-AC51-0B52FBD1B120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FD0AD6-5C84-44AD-884C-52EEB9400F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1FC89445-85D3-4BFC-B6FC-AC704D00E7F6}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{1FC89445-85D3-4BFC-B6FC-AC704D00E7F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="228">
   <si>
     <t>Acronym</t>
   </si>
@@ -171,9 +171,6 @@
   </si>
   <si>
     <t>aStriat R lateral</t>
-  </si>
-  <si>
-    <t>"The most anterior tip of the striatum that is visible in left hemisphere" Bjerke et al. 2023. As far right lateral as possible in coronal plane, most anterior grey matter in sagittal and most lateral grey matter in horizontal. plane</t>
   </si>
   <si>
     <t>anterior septal nucleus right</t>
@@ -717,9 +714,6 @@
     <t xml:space="preserve">The most coronal slice is not a constant. Each volume is differently cropped. </t>
   </si>
   <si>
-    <t>Maybe</t>
-  </si>
-  <si>
     <t>It seems there are multiple points that might be compatible with this description.</t>
   </si>
   <si>
@@ -727,6 +721,9 @@
   </si>
   <si>
     <t>defined in reference to a different point</t>
+  </si>
+  <si>
+    <t>"The most anterior tip of the striatum that is visible in left hemisphere" Bjerke et al. 2023. As far right lateral as possible in coronal plane, most anterior grey matter in sagittal and most lateral grey matter in horizontal plane</t>
   </si>
 </sst>
 </file>
@@ -1098,8 +1095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9C36F58-7227-4371-9ECE-41C2B460C241}">
   <dimension ref="A1:X71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B58" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1110,10 +1107,10 @@
   <sheetData>
     <row r="1" spans="1:24" ht="58" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -1137,54 +1134,54 @@
         <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -1355,10 +1352,10 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>226</v>
-      </c>
-      <c r="B5" t="s">
-        <v>225</v>
+        <v>224</v>
+      </c>
+      <c r="B5" t="b">
+        <v>0</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
@@ -1429,10 +1426,10 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>226</v>
-      </c>
-      <c r="B6" t="s">
-        <v>225</v>
+        <v>224</v>
+      </c>
+      <c r="B6" t="b">
+        <v>0</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
@@ -1503,10 +1500,10 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>226</v>
-      </c>
-      <c r="B7" t="s">
-        <v>225</v>
+        <v>224</v>
+      </c>
+      <c r="B7" t="b">
+        <v>0</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
@@ -1577,10 +1574,10 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>226</v>
-      </c>
-      <c r="B8" t="s">
-        <v>225</v>
+        <v>224</v>
+      </c>
+      <c r="B8" t="b">
+        <v>0</v>
       </c>
       <c r="C8" t="s">
         <v>26</v>
@@ -1991,7 +1988,7 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -2003,7 +2000,7 @@
         <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>227</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>17</v>
@@ -2065,13 +2062,13 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="C15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" t="s">
         <v>46</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>47</v>
-      </c>
-      <c r="E15" t="s">
-        <v>48</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>17</v>
@@ -2133,13 +2130,13 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" t="s">
         <v>49</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>50</v>
-      </c>
-      <c r="E16" t="s">
-        <v>51</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>14</v>
@@ -2204,13 +2201,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" t="s">
         <v>52</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>53</v>
-      </c>
-      <c r="E17" t="s">
-        <v>54</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>14</v>
@@ -2272,13 +2269,13 @@
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.35">
       <c r="C18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" t="s">
         <v>55</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>56</v>
-      </c>
-      <c r="E18" t="s">
-        <v>57</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>14</v>
@@ -2340,13 +2337,13 @@
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.35">
       <c r="C19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" t="s">
         <v>58</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>59</v>
-      </c>
-      <c r="E19" t="s">
-        <v>60</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
@@ -2408,13 +2405,13 @@
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.35">
       <c r="C20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" t="s">
         <v>61</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>62</v>
-      </c>
-      <c r="E20" t="s">
-        <v>63</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
@@ -2476,19 +2473,19 @@
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>228</v>
-      </c>
-      <c r="B21" t="s">
-        <v>225</v>
+        <v>226</v>
+      </c>
+      <c r="B21" t="b">
+        <v>1</v>
       </c>
       <c r="C21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" t="s">
         <v>64</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>65</v>
-      </c>
-      <c r="E21" t="s">
-        <v>66</v>
       </c>
       <c r="F21" t="s">
         <v>14</v>
@@ -2550,19 +2547,19 @@
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>228</v>
-      </c>
-      <c r="B22" t="s">
-        <v>225</v>
+        <v>226</v>
+      </c>
+      <c r="B22" t="b">
+        <v>1</v>
       </c>
       <c r="C22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" t="s">
         <v>67</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>68</v>
-      </c>
-      <c r="E22" t="s">
-        <v>69</v>
       </c>
       <c r="F22" t="s">
         <v>17</v>
@@ -2624,13 +2621,13 @@
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.35">
       <c r="C23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" t="s">
         <v>70</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>71</v>
-      </c>
-      <c r="E23" t="s">
-        <v>72</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>17</v>
@@ -2692,13 +2689,13 @@
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.35">
       <c r="C24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" t="s">
         <v>73</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>74</v>
-      </c>
-      <c r="E24" t="s">
-        <v>75</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>14</v>
@@ -2760,13 +2757,13 @@
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.35">
       <c r="C25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" t="s">
         <v>76</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>77</v>
-      </c>
-      <c r="E25" t="s">
-        <v>78</v>
       </c>
       <c r="F25" t="s">
         <v>10</v>
@@ -2828,13 +2825,13 @@
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.35">
       <c r="C26" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" t="s">
         <v>79</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>80</v>
-      </c>
-      <c r="E26" t="s">
-        <v>81</v>
       </c>
       <c r="F26" t="s">
         <v>14</v>
@@ -2896,13 +2893,13 @@
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.35">
       <c r="C27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" t="s">
         <v>82</v>
       </c>
-      <c r="D27" t="s">
-        <v>83</v>
-      </c>
       <c r="E27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F27" t="s">
         <v>17</v>
@@ -2964,13 +2961,13 @@
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.35">
       <c r="C28" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" t="s">
         <v>84</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>85</v>
-      </c>
-      <c r="E28" t="s">
-        <v>86</v>
       </c>
       <c r="F28" t="s">
         <v>10</v>
@@ -3032,13 +3029,13 @@
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.35">
       <c r="C29" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" t="s">
         <v>87</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>88</v>
-      </c>
-      <c r="E29" t="s">
-        <v>89</v>
       </c>
       <c r="F29" t="s">
         <v>10</v>
@@ -3099,17 +3096,17 @@
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="B30" t="s">
-        <v>225</v>
+      <c r="B30" t="b">
+        <v>0</v>
       </c>
       <c r="C30" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" t="s">
         <v>90</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>91</v>
-      </c>
-      <c r="E30" t="s">
-        <v>92</v>
       </c>
       <c r="F30" t="s">
         <v>17</v>
@@ -3170,17 +3167,17 @@
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="B31" t="s">
-        <v>225</v>
+      <c r="B31" t="b">
+        <v>0</v>
       </c>
       <c r="C31" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" t="s">
         <v>93</v>
       </c>
-      <c r="D31" t="s">
-        <v>94</v>
-      </c>
       <c r="E31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F31" t="s">
         <v>14</v>
@@ -3242,13 +3239,13 @@
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.35">
       <c r="C32" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" t="s">
         <v>95</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>96</v>
-      </c>
-      <c r="E32" t="s">
-        <v>97</v>
       </c>
       <c r="F32" t="s">
         <v>10</v>
@@ -3313,13 +3310,13 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" t="s">
         <v>98</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>99</v>
-      </c>
-      <c r="E33" t="s">
-        <v>100</v>
       </c>
       <c r="F33" t="s">
         <v>17</v>
@@ -3384,13 +3381,13 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" t="s">
         <v>101</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>102</v>
-      </c>
-      <c r="E34" t="s">
-        <v>103</v>
       </c>
       <c r="F34" t="s">
         <v>14</v>
@@ -3452,13 +3449,13 @@
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.35">
       <c r="C35" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" t="s">
         <v>104</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>105</v>
-      </c>
-      <c r="E35" t="s">
-        <v>106</v>
       </c>
       <c r="F35" t="s">
         <v>10</v>
@@ -3520,13 +3517,13 @@
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.35">
       <c r="C36" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" t="s">
         <v>107</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>108</v>
-      </c>
-      <c r="E36" t="s">
-        <v>109</v>
       </c>
       <c r="F36" t="s">
         <v>14</v>
@@ -3588,13 +3585,13 @@
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.35">
       <c r="C37" t="s">
+        <v>109</v>
+      </c>
+      <c r="D37" t="s">
         <v>110</v>
       </c>
-      <c r="D37" t="s">
-        <v>111</v>
-      </c>
       <c r="E37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F37" t="s">
         <v>17</v>
@@ -3656,13 +3653,13 @@
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.35">
       <c r="C38" t="s">
+        <v>111</v>
+      </c>
+      <c r="D38" t="s">
         <v>112</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>113</v>
-      </c>
-      <c r="E38" t="s">
-        <v>114</v>
       </c>
       <c r="F38" t="s">
         <v>14</v>
@@ -3724,13 +3721,13 @@
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.35">
       <c r="C39" t="s">
+        <v>114</v>
+      </c>
+      <c r="D39" t="s">
         <v>115</v>
       </c>
-      <c r="D39" t="s">
-        <v>116</v>
-      </c>
       <c r="E39" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F39" t="s">
         <v>17</v>
@@ -3792,13 +3789,13 @@
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.35">
       <c r="C40" t="s">
+        <v>116</v>
+      </c>
+      <c r="D40" t="s">
         <v>117</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>118</v>
-      </c>
-      <c r="E40" t="s">
-        <v>119</v>
       </c>
       <c r="F40" t="s">
         <v>14</v>
@@ -3860,13 +3857,13 @@
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.35">
       <c r="C41" t="s">
+        <v>119</v>
+      </c>
+      <c r="D41" t="s">
         <v>120</v>
       </c>
-      <c r="D41" t="s">
-        <v>121</v>
-      </c>
       <c r="E41" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F41" t="s">
         <v>17</v>
@@ -3927,17 +3924,17 @@
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="B42" t="s">
-        <v>225</v>
+      <c r="B42" t="b">
+        <v>0</v>
       </c>
       <c r="C42" t="s">
+        <v>121</v>
+      </c>
+      <c r="D42" t="s">
         <v>122</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>123</v>
-      </c>
-      <c r="E42" t="s">
-        <v>124</v>
       </c>
       <c r="F42" t="s">
         <v>17</v>
@@ -3998,17 +3995,17 @@
       </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="B43" t="s">
-        <v>225</v>
+      <c r="B43" t="b">
+        <v>0</v>
       </c>
       <c r="C43" t="s">
+        <v>124</v>
+      </c>
+      <c r="D43" t="s">
         <v>125</v>
       </c>
-      <c r="D43" t="s">
-        <v>126</v>
-      </c>
       <c r="E43" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F43" t="s">
         <v>14</v>
@@ -4070,19 +4067,19 @@
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>228</v>
-      </c>
-      <c r="B44" t="s">
-        <v>225</v>
+        <v>226</v>
+      </c>
+      <c r="B44" t="b">
+        <v>1</v>
       </c>
       <c r="C44" t="s">
+        <v>126</v>
+      </c>
+      <c r="D44" t="s">
         <v>127</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>128</v>
-      </c>
-      <c r="E44" t="s">
-        <v>129</v>
       </c>
       <c r="F44" t="s">
         <v>10</v>
@@ -4144,13 +4141,13 @@
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.35">
       <c r="C45" t="s">
+        <v>129</v>
+      </c>
+      <c r="D45" t="s">
         <v>130</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>131</v>
-      </c>
-      <c r="E45" t="s">
-        <v>132</v>
       </c>
       <c r="F45" t="s">
         <v>10</v>
@@ -4212,13 +4209,13 @@
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.35">
       <c r="C46" t="s">
+        <v>132</v>
+      </c>
+      <c r="D46" t="s">
         <v>133</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>134</v>
-      </c>
-      <c r="E46" t="s">
-        <v>135</v>
       </c>
       <c r="F46" t="s">
         <v>14</v>
@@ -4280,13 +4277,13 @@
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.35">
       <c r="C47" t="s">
+        <v>135</v>
+      </c>
+      <c r="D47" t="s">
         <v>136</v>
       </c>
-      <c r="D47" t="s">
-        <v>137</v>
-      </c>
       <c r="E47" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F47" t="s">
         <v>17</v>
@@ -4348,13 +4345,13 @@
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.35">
       <c r="C48" t="s">
+        <v>137</v>
+      </c>
+      <c r="D48" t="s">
         <v>138</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>139</v>
-      </c>
-      <c r="E48" t="s">
-        <v>140</v>
       </c>
       <c r="F48" t="s">
         <v>14</v>
@@ -4416,13 +4413,13 @@
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.35">
       <c r="C49" t="s">
+        <v>140</v>
+      </c>
+      <c r="D49" t="s">
         <v>141</v>
       </c>
-      <c r="D49" t="s">
-        <v>142</v>
-      </c>
       <c r="E49" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F49" t="s">
         <v>17</v>
@@ -4483,17 +4480,17 @@
       </c>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="B50" t="s">
-        <v>225</v>
+      <c r="B50" t="b">
+        <v>1</v>
       </c>
       <c r="C50" t="s">
+        <v>142</v>
+      </c>
+      <c r="D50" t="s">
         <v>143</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>144</v>
-      </c>
-      <c r="E50" t="s">
-        <v>145</v>
       </c>
       <c r="F50" t="s">
         <v>14</v>
@@ -4554,17 +4551,17 @@
       </c>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="B51" t="s">
-        <v>225</v>
+      <c r="B51" t="b">
+        <v>1</v>
       </c>
       <c r="C51" t="s">
+        <v>145</v>
+      </c>
+      <c r="D51" t="s">
         <v>146</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>147</v>
-      </c>
-      <c r="E51" t="s">
-        <v>148</v>
       </c>
       <c r="F51" t="s">
         <v>17</v>
@@ -4625,17 +4622,17 @@
       </c>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="B52" t="s">
-        <v>225</v>
+      <c r="B52" t="b">
+        <v>1</v>
       </c>
       <c r="C52" t="s">
+        <v>148</v>
+      </c>
+      <c r="D52" t="s">
         <v>149</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>150</v>
-      </c>
-      <c r="E52" t="s">
-        <v>151</v>
       </c>
       <c r="F52" t="s">
         <v>17</v>
@@ -4696,17 +4693,17 @@
       </c>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="B53" t="s">
-        <v>225</v>
+      <c r="B53" t="b">
+        <v>1</v>
       </c>
       <c r="C53" t="s">
+        <v>151</v>
+      </c>
+      <c r="D53" t="s">
         <v>152</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>153</v>
-      </c>
-      <c r="E53" t="s">
-        <v>154</v>
       </c>
       <c r="F53" t="s">
         <v>14</v>
@@ -4768,13 +4765,13 @@
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.35">
       <c r="C54" t="s">
+        <v>154</v>
+      </c>
+      <c r="D54" t="s">
         <v>155</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>156</v>
-      </c>
-      <c r="E54" t="s">
-        <v>157</v>
       </c>
       <c r="F54" t="s">
         <v>14</v>
@@ -4836,13 +4833,13 @@
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.35">
       <c r="C55" t="s">
+        <v>157</v>
+      </c>
+      <c r="D55" t="s">
         <v>158</v>
       </c>
-      <c r="D55" t="s">
-        <v>159</v>
-      </c>
       <c r="E55" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F55" t="s">
         <v>17</v>
@@ -4907,13 +4904,13 @@
         <v>1</v>
       </c>
       <c r="C56" t="s">
+        <v>159</v>
+      </c>
+      <c r="D56" t="s">
         <v>160</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>161</v>
-      </c>
-      <c r="E56" t="s">
-        <v>162</v>
       </c>
       <c r="F56" t="s">
         <v>10</v>
@@ -4975,13 +4972,13 @@
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.35">
       <c r="C57" t="s">
+        <v>162</v>
+      </c>
+      <c r="D57" t="s">
         <v>163</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>164</v>
-      </c>
-      <c r="E57" t="s">
-        <v>165</v>
       </c>
       <c r="F57" t="s">
         <v>10</v>
@@ -5043,19 +5040,19 @@
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B58" t="b">
         <v>1</v>
       </c>
       <c r="C58" t="s">
+        <v>165</v>
+      </c>
+      <c r="D58" t="s">
         <v>166</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>167</v>
-      </c>
-      <c r="E58" t="s">
-        <v>168</v>
       </c>
       <c r="F58" t="s">
         <v>10</v>
@@ -5117,13 +5114,13 @@
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.35">
       <c r="C59" t="s">
+        <v>168</v>
+      </c>
+      <c r="D59" t="s">
         <v>169</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>170</v>
-      </c>
-      <c r="E59" t="s">
-        <v>171</v>
       </c>
       <c r="F59" t="s">
         <v>10</v>
@@ -5185,13 +5182,13 @@
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.35">
       <c r="C60" t="s">
+        <v>171</v>
+      </c>
+      <c r="D60" t="s">
         <v>172</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>173</v>
-      </c>
-      <c r="E60" t="s">
-        <v>174</v>
       </c>
       <c r="F60" t="s">
         <v>14</v>
@@ -5253,13 +5250,13 @@
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.35">
       <c r="C61" t="s">
+        <v>174</v>
+      </c>
+      <c r="D61" t="s">
         <v>175</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>176</v>
-      </c>
-      <c r="E61" t="s">
-        <v>177</v>
       </c>
       <c r="F61" t="s">
         <v>17</v>
@@ -5324,13 +5321,13 @@
         <v>1</v>
       </c>
       <c r="C62" t="s">
+        <v>177</v>
+      </c>
+      <c r="D62" t="s">
         <v>178</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>179</v>
-      </c>
-      <c r="E62" t="s">
-        <v>180</v>
       </c>
       <c r="F62" t="s">
         <v>10</v>
@@ -5392,13 +5389,13 @@
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.35">
       <c r="C63" t="s">
+        <v>180</v>
+      </c>
+      <c r="D63" t="s">
         <v>181</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>182</v>
-      </c>
-      <c r="E63" t="s">
-        <v>183</v>
       </c>
       <c r="F63" t="s">
         <v>17</v>
@@ -5460,13 +5457,13 @@
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.35">
       <c r="C64" t="s">
+        <v>183</v>
+      </c>
+      <c r="D64" t="s">
         <v>184</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>185</v>
-      </c>
-      <c r="E64" t="s">
-        <v>186</v>
       </c>
       <c r="F64" t="s">
         <v>14</v>
@@ -5528,13 +5525,13 @@
     </row>
     <row r="65" spans="2:24" x14ac:dyDescent="0.35">
       <c r="C65" t="s">
+        <v>186</v>
+      </c>
+      <c r="D65" t="s">
         <v>187</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>188</v>
-      </c>
-      <c r="E65" t="s">
-        <v>189</v>
       </c>
       <c r="F65" t="s">
         <v>10</v>
@@ -5596,13 +5593,13 @@
     </row>
     <row r="66" spans="2:24" x14ac:dyDescent="0.35">
       <c r="C66" t="s">
+        <v>189</v>
+      </c>
+      <c r="D66" t="s">
         <v>190</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>191</v>
-      </c>
-      <c r="E66" t="s">
-        <v>192</v>
       </c>
       <c r="F66" t="s">
         <v>14</v>
@@ -5664,13 +5661,13 @@
     </row>
     <row r="67" spans="2:24" x14ac:dyDescent="0.35">
       <c r="C67" t="s">
+        <v>192</v>
+      </c>
+      <c r="D67" t="s">
         <v>193</v>
       </c>
-      <c r="D67" t="s">
-        <v>194</v>
-      </c>
       <c r="E67" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F67" t="s">
         <v>17</v>
@@ -5732,13 +5729,13 @@
     </row>
     <row r="68" spans="2:24" x14ac:dyDescent="0.35">
       <c r="C68" t="s">
+        <v>194</v>
+      </c>
+      <c r="D68" t="s">
         <v>195</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
         <v>196</v>
-      </c>
-      <c r="E68" t="s">
-        <v>197</v>
       </c>
       <c r="F68" t="s">
         <v>10</v>
@@ -5800,13 +5797,13 @@
     </row>
     <row r="69" spans="2:24" x14ac:dyDescent="0.35">
       <c r="C69" t="s">
+        <v>197</v>
+      </c>
+      <c r="D69" t="s">
         <v>198</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
         <v>199</v>
-      </c>
-      <c r="E69" t="s">
-        <v>200</v>
       </c>
       <c r="F69" t="s">
         <v>10</v>
@@ -5868,13 +5865,13 @@
     </row>
     <row r="70" spans="2:24" x14ac:dyDescent="0.35">
       <c r="C70" t="s">
+        <v>200</v>
+      </c>
+      <c r="D70" t="s">
         <v>201</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>202</v>
-      </c>
-      <c r="E70" t="s">
-        <v>203</v>
       </c>
       <c r="F70" t="s">
         <v>10</v>
@@ -5939,13 +5936,13 @@
         <v>1</v>
       </c>
       <c r="C71" t="s">
+        <v>203</v>
+      </c>
+      <c r="D71" t="s">
         <v>204</v>
       </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
         <v>205</v>
-      </c>
-      <c r="E71" t="s">
-        <v>206</v>
       </c>
       <c r="F71" s="4" t="s">
         <v>10</v>
